--- a/8/1/2/3/Activos- Flujos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/3/Activos- Flujos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4743,55 +4746,111 @@
         <v>90</v>
       </c>
       <c r="B74">
-        <v>4103</v>
+        <v>11048</v>
       </c>
       <c r="C74">
-        <v>1694</v>
+        <v>8324</v>
       </c>
       <c r="D74">
-        <v>280</v>
+        <v>7248</v>
       </c>
       <c r="E74">
-        <v>1055</v>
+        <v>981</v>
       </c>
       <c r="F74">
-        <v>359</v>
+        <v>95</v>
       </c>
       <c r="G74">
-        <v>4406</v>
+        <v>5232</v>
       </c>
       <c r="H74">
-        <v>3229</v>
+        <v>3288</v>
       </c>
       <c r="I74">
-        <v>1177</v>
+        <v>1945</v>
       </c>
       <c r="J74">
-        <v>280</v>
+        <v>1202</v>
       </c>
       <c r="K74">
-        <v>897</v>
+        <v>743</v>
       </c>
       <c r="L74">
         <v>-3690</v>
       </c>
       <c r="M74">
-        <v>238</v>
+        <v>-274</v>
       </c>
       <c r="N74">
-        <v>778</v>
+        <v>970</v>
       </c>
       <c r="O74">
-        <v>-101</v>
+        <v>-37</v>
       </c>
       <c r="P74">
-        <v>-413</v>
+        <v>-1181</v>
       </c>
       <c r="Q74">
         <v>-26</v>
       </c>
       <c r="R74">
         <v>1455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75">
+        <v>2491</v>
+      </c>
+      <c r="C75">
+        <v>1448</v>
+      </c>
+      <c r="D75">
+        <v>466</v>
+      </c>
+      <c r="E75">
+        <v>785</v>
+      </c>
+      <c r="F75">
+        <v>196</v>
+      </c>
+      <c r="G75">
+        <v>-5356</v>
+      </c>
+      <c r="H75">
+        <v>-3088</v>
+      </c>
+      <c r="I75">
+        <v>-2268</v>
+      </c>
+      <c r="J75">
+        <v>967</v>
+      </c>
+      <c r="K75">
+        <v>-3236</v>
+      </c>
+      <c r="L75">
+        <v>-2731</v>
+      </c>
+      <c r="M75">
+        <v>4685</v>
+      </c>
+      <c r="N75">
+        <v>1298</v>
+      </c>
+      <c r="O75">
+        <v>78</v>
+      </c>
+      <c r="P75">
+        <v>3232</v>
+      </c>
+      <c r="Q75">
+        <v>77</v>
+      </c>
+      <c r="R75">
+        <v>4446</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/3/Activos- Flujos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/3/Activos- Flujos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Serie</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4853,6 +4856,62 @@
         <v>4446</v>
       </c>
     </row>
+    <row r="76" spans="1:18">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76">
+        <v>14232</v>
+      </c>
+      <c r="C76">
+        <v>2003</v>
+      </c>
+      <c r="D76">
+        <v>862</v>
+      </c>
+      <c r="E76">
+        <v>656</v>
+      </c>
+      <c r="F76">
+        <v>486</v>
+      </c>
+      <c r="G76">
+        <v>1520</v>
+      </c>
+      <c r="H76">
+        <v>2837</v>
+      </c>
+      <c r="I76">
+        <v>-1317</v>
+      </c>
+      <c r="J76">
+        <v>-2071</v>
+      </c>
+      <c r="K76">
+        <v>755</v>
+      </c>
+      <c r="L76">
+        <v>-2371</v>
+      </c>
+      <c r="M76">
+        <v>4406</v>
+      </c>
+      <c r="N76">
+        <v>-58</v>
+      </c>
+      <c r="O76">
+        <v>-84</v>
+      </c>
+      <c r="P76">
+        <v>4573</v>
+      </c>
+      <c r="Q76">
+        <v>-25</v>
+      </c>
+      <c r="R76">
+        <v>8675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
